--- a/Documents/SAT_TEST  CASE TEMPLATE.xlsx
+++ b/Documents/SAT_TEST  CASE TEMPLATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8250" activeTab="1"/>
+    <workbookView windowWidth="20475" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -25,55 +25,55 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>TC_Cura_001</t>
+    <t>TC_Cura_login_001</t>
   </si>
   <si>
     <t xml:space="preserve">validate Cura application for  valid login credentials </t>
   </si>
   <si>
-    <t>TC_Cura_002</t>
+    <t>TC_Cura_login_002</t>
   </si>
   <si>
     <t xml:space="preserve">validate Cura application for  invalid login credentials </t>
   </si>
   <si>
-    <t>TC_Cura_003</t>
+    <t>TC_Cura_login_003</t>
   </si>
   <si>
     <t>validate Cura application for   login without username</t>
   </si>
   <si>
-    <t>TC_Cura_004</t>
+    <t>TC_Cura_login_004</t>
   </si>
   <si>
     <t>validate Cura application for   login without password</t>
   </si>
   <si>
-    <t>TC_Cura_005</t>
+    <t>TC_Cura_appointment_001</t>
   </si>
   <si>
     <t>validate Cura application for making valid appointments</t>
   </si>
   <si>
-    <t>TC_Cura_006</t>
+    <t>TC_Cura_appointment_002</t>
   </si>
   <si>
     <t>validate Cura application for making invalid appointments</t>
   </si>
   <si>
-    <t>TC_Cura_007</t>
+    <t>TC_Cura_History_001</t>
   </si>
   <si>
     <t xml:space="preserve">validate Cura application for appointment History before making appointment </t>
   </si>
   <si>
-    <t>TC_Cura_008</t>
+    <t>TC_Cura_History_002</t>
   </si>
   <si>
     <t xml:space="preserve">validate Cura application for appointment History after making appointment </t>
   </si>
   <si>
-    <t>TC_Cura_009</t>
+    <t>TC_Cura_Logout_001</t>
   </si>
   <si>
     <t>validate Cura application for  logout functionalities</t>
@@ -163,6 +163,9 @@
     <t xml:space="preserve"> displayed error message</t>
   </si>
   <si>
+    <t>TC_Cura__login_003</t>
+  </si>
+  <si>
     <t>4. enter password only</t>
   </si>
   <si>
@@ -223,7 +226,7 @@
     <t xml:space="preserve">landed on History  page with no appointment label </t>
   </si>
   <si>
-    <t xml:space="preserve"> ref: TC_Cura_001</t>
+    <t xml:space="preserve"> ref: TC_Cura_login_001</t>
   </si>
   <si>
     <t>4.click menu icon</t>
@@ -247,16 +250,16 @@
     <t>3.make appointment</t>
   </si>
   <si>
-    <t>ref:TC_cura_005</t>
+    <t>ref:TC_cura_appointment_001</t>
+  </si>
+  <si>
+    <t>TC_Cura_logout_001</t>
   </si>
   <si>
     <t>should be landed on Home  page</t>
   </si>
   <si>
     <t>landed on Home  page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ref: TC_CUra_001</t>
   </si>
   <si>
     <t>3.click menu icon</t>
@@ -1555,12 +1558,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.4285714285714" style="26" customWidth="1"/>
+    <col min="1" max="1" width="33.5714285714286" style="26" customWidth="1"/>
     <col min="2" max="2" width="85.1428571428571" style="26" customWidth="1"/>
     <col min="3" max="16384" width="9" style="26"/>
   </cols>
@@ -1657,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:H50"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -1667,9 +1670,9 @@
     <col min="2" max="2" width="15.2190476190476" style="17" customWidth="1"/>
     <col min="3" max="3" width="37.1333333333333" style="17" customWidth="1"/>
     <col min="4" max="4" width="35.847619047619" style="17" customWidth="1"/>
-    <col min="5" max="5" width="31.6285714285714" style="17" customWidth="1"/>
-    <col min="6" max="6" width="23" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.6" style="17" customWidth="1"/>
+    <col min="5" max="5" width="41.8190476190476" style="17" customWidth="1"/>
+    <col min="6" max="6" width="33.2380952380952" style="17" customWidth="1"/>
+    <col min="7" max="7" width="36.3619047619048" style="17" customWidth="1"/>
     <col min="8" max="8" width="31.9333333333333" style="17" customWidth="1"/>
     <col min="9" max="9" width="19.9904761904762" style="18" customWidth="1"/>
     <col min="10" max="10" width="19.1809523809524" style="18" customWidth="1"/>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="12" ht="81" spans="1:11">
       <c r="A12" s="20" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>31</v>
@@ -1971,7 +1974,7 @@
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>43</v>
@@ -2066,7 +2069,7 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>43</v>
@@ -2103,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>34</v>
@@ -2112,10 +2115,10 @@
         <v>35</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>38</v>
@@ -2131,7 +2134,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>43</v>
@@ -2148,10 +2151,10 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -2165,7 +2168,7 @@
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="20"/>
@@ -2180,7 +2183,7 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="20"/>
@@ -2195,7 +2198,7 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="20"/>
@@ -2210,7 +2213,7 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="20"/>
@@ -2225,7 +2228,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -2242,10 +2245,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>34</v>
@@ -2254,10 +2257,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>38</v>
@@ -2273,7 +2276,7 @@
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>43</v>
@@ -2290,10 +2293,10 @@
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -2307,7 +2310,7 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="20"/>
@@ -2322,7 +2325,7 @@
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="20"/>
@@ -2337,7 +2340,7 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="20"/>
@@ -2352,7 +2355,7 @@
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="20"/>
@@ -2367,7 +2370,7 @@
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="20"/>
@@ -2384,10 +2387,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>34</v>
@@ -2396,10 +2399,10 @@
         <v>35</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>38</v>
@@ -2409,16 +2412,16 @@
       </c>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" ht="60.75" spans="1:11">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -2432,7 +2435,7 @@
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
@@ -2447,7 +2450,7 @@
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -2464,10 +2467,10 @@
         <v>31</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>34</v>
@@ -2476,10 +2479,10 @@
         <v>35</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>38</v>
@@ -2489,16 +2492,16 @@
       </c>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" ht="60.75" spans="1:11">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -2506,16 +2509,16 @@
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" ht="40.5" spans="1:11">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -2529,7 +2532,7 @@
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
@@ -2544,7 +2547,7 @@
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
@@ -2555,7 +2558,7 @@
     </row>
     <row r="47" ht="81" spans="1:11">
       <c r="A47" s="20" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>31</v>
@@ -2564,7 +2567,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>34</v>
@@ -2573,10 +2576,10 @@
         <v>35</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>38</v>
@@ -2586,16 +2589,16 @@
       </c>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" ht="60.75" spans="1:11">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
@@ -2609,7 +2612,7 @@
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
@@ -2624,7 +2627,7 @@
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
@@ -2843,8 +2846,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -2858,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2873,16 +2876,16 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="13" customHeight="1" spans="1:4">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="12"/>
     </row>
@@ -2891,13 +2894,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="37.5" spans="1:4">
@@ -2905,25 +2908,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="37.5" spans="1:4">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" ht="37.5" spans="1:4">
@@ -2932,10 +2935,10 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="37.5" spans="1:4">
@@ -2943,11 +2946,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2987,12 +2990,12 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.8571428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.4285714285714" style="1" customWidth="1"/>
@@ -3003,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3014,17 +3017,17 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3032,146 +3035,146 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="7">
         <v>45316</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="7">
         <v>45322</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="7">
         <v>45332</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="7">
         <v>45405</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="7">
         <v>44995</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="7">
         <v>45342</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3188,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3197,56 +3200,56 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
